--- a/IT Projects Report.xlsx
+++ b/IT Projects Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1\RRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GaBiEtO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>ACCOMPLISHMENT</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>Installation of Fortisandbox into the domain network.                                             Installation and configuration of Forticlient Enterprise Management Server on the domain controller.                                               Remote deployment of fortigate security (Forticlient software) installation and configurations to all domain computers on the network.</t>
+  </si>
+  <si>
+    <t>Migration of 50 Exchange account Users to Office365 account, Setting up and configuration of OneDrive Cloud Storage and backups</t>
+  </si>
+  <si>
+    <t>I was able to create Public Folder mailbox database, configure seurity permissions and setup Public Folder for users to exchange mail attachments.</t>
+  </si>
+  <si>
+    <t>AUGUST, 2019</t>
+  </si>
+  <si>
+    <t>Migration of Users from Exchange Account to Cloud Office365 Account and Security.</t>
+  </si>
+  <si>
+    <t>Using Microsoft 365 Admin Center Platform, We were able migrate 50 staff account,  setup Onedrive Cloud storage and daily backups of files remotely, configure Group Policy folder redirection on KNOWN computer folders for OneDrive backups to take place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Admin Center, exchange admin center and Group Policy Management tools. </t>
+  </si>
+  <si>
+    <t>SEPTEMBER, 2019</t>
   </si>
 </sst>
 </file>
@@ -444,9 +465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -726,8 +747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:J22" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="B5:J22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:J24" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="B5:J24"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Column2" dataDxfId="8"/>
     <tableColumn id="3" name="Column3" dataDxfId="7"/>
@@ -1042,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1079,7 @@
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1151,13 +1172,13 @@
       <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -1165,13 +1186,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1180,36 +1201,36 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1218,35 +1239,35 @@
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1255,36 +1276,36 @@
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>4</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1293,74 +1314,74 @@
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>5</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>6</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1369,64 +1390,115 @@
       <c r="F19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>7</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="25"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <v>8</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
     </row>

--- a/IT Projects Report.xlsx
+++ b/IT Projects Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GaBiEtO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GaBiEtO\Documents\GitHub\PROJECTS_AS_IT_OFFICER_AT_HYGEIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>PROJECT NUMBER</t>
   </si>
   <si>
-    <t>I installed DFRS Role and features.                          I configured DFRS namespace and replication.             Then I force an authoritative DFSR Sync of SYSVOL and NETLOGON folder to fix Group Policy and File Replication</t>
-  </si>
-  <si>
     <t xml:space="preserve">Files such as: gpt.ini file; on Network shared folders are not fully replicating between the two domain controllers. </t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>To restrict unauthorized users access to files stored in Call Center department desktop computers</t>
   </si>
   <si>
-    <t>I restricted USB PORTS access remotely to only Contact Center department destop computers Using Kaspersky Endpoint Security Policy through the Administrative Server Console</t>
-  </si>
-  <si>
     <t>To restrict USB PORTS access on desktop computers.</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>SEPTEMBER, 2018</t>
   </si>
   <si>
-    <t>Firstly, I installed File Server Resource Manager (FSRM) role on the File server.                                                     I configured Quota and setup File Screening to deny domain users from storing video and audio files on the File Server thereby mantaining server's storage space on the FSRM console.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To configure group policy management on hygeia systems.                               </t>
   </si>
   <si>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>SEPTEMBER, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I installed DFRS Role and features.                          I configured DFRS namespace and replication.             Then I force an authoritative DFSR Sync of SYSVOL and NETLOGON folder to fix Group Policy and Files not Replicating incidents. </t>
+  </si>
+  <si>
+    <t>Firstly, I installed File Server Resource Manager (FSRM) role on the File server.                                                     I configured Quota and setup File Screening to deny domain users from storing video and audio files on the File Server thereby mantaining server's storage space.</t>
+  </si>
+  <si>
+    <t>I restricted USB PORTS access remotely to only Contact Center department desktop computers Using Kaspersky Endpoint Security Policy, and using Group Policies settings to restrict users from installing Auto-Run Software.</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -1164,22 +1164,22 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>7</v>
@@ -1190,25 +1190,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -1228,25 +1228,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -1265,25 +1265,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="G13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -1298,30 +1298,30 @@
       <c r="I14" s="26"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <v>4</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>5</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>36</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -1379,25 +1379,25 @@
         <v>6</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -1417,25 +1417,25 @@
         <v>7</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="I21" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -1454,25 +1454,25 @@
         <v>8</v>
       </c>
       <c r="C23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="I23" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>66</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
